--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <r>
       <rPr>
@@ -2468,8 +2468,8 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -2534,7 +2534,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:6">
+    <row r="5" ht="46" customHeight="1" spans="1:6">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
@@ -2934,7 +2934,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" customFormat="1" ht="17" customHeight="1" spans="1:6">
+    <row r="30" customFormat="1" ht="34" customHeight="1" spans="1:6">
       <c r="A30" s="12" t="s">
         <v>56</v>
       </c>
@@ -2944,11 +2944,13 @@
       <c r="C30" s="14">
         <v>45354</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E30" s="16"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" customFormat="1" ht="17" customHeight="1" spans="1:6">
+    <row r="31" customFormat="1" ht="45" customHeight="1" spans="1:6">
       <c r="A31" s="12" t="s">
         <v>57</v>
       </c>
@@ -2958,7 +2960,9 @@
       <c r="C31" s="14">
         <v>45354</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="E31" s="16"/>
       <c r="F31" s="11"/>
     </row>
@@ -2983,8 +2987,8 @@
         <v>58</v>
       </c>
       <c r="B34" s="27">
-        <f>SUMIF(E4:E29,"&lt;&gt;x",B4:B31)</f>
-        <v>28.82</v>
+        <f>SUMIF(E4:E31,"&lt;&gt;x",B4:B31)</f>
+        <v>32.15</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>

--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <r>
       <rPr>
@@ -210,7 +210,7 @@
     <t>house form input field hints like enter in number</t>
   </si>
   <si>
-    <t>Implement About page navigation.</t>
+    <t xml:space="preserve">Implement About page </t>
   </si>
   <si>
     <t>Fill content and 
@@ -227,6 +227,23 @@
   </si>
   <si>
     <t>Mobile view Houses page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implement houses page with house card list.
+load and test with dummy data
+adopt the edit and delete icons                                          Styling House page </t>
+  </si>
+  <si>
+    <t>Mobile View HouseDetails page</t>
+  </si>
+  <si>
+    <t>Listing address,postal code and city of Houses                     Listing image,size and number of bedrooms,bathrooms            Styling House Details Page</t>
+  </si>
+  <si>
+    <t>Mobile view HouseForm page</t>
+  </si>
+  <si>
+    <t>Aligning the form page                                                     Styling House form Page</t>
   </si>
   <si>
     <t>Total amount of hours</t>
@@ -2466,10 +2483,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -2905,7 +2922,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="13">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="C28" s="14">
         <v>45354</v>
@@ -2950,74 +2967,106 @@
       <c r="E30" s="16"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" customFormat="1" ht="45" customHeight="1" spans="1:6">
+    <row r="31" customFormat="1" ht="61" customHeight="1" spans="1:6">
       <c r="A31" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B31" s="13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C31" s="14">
         <v>45354</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" customFormat="1" ht="28" customHeight="1" spans="1:6">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
+    <row r="32" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A32" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="C32" s="14">
+        <v>45355</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="E32" s="16"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" ht="16.25" customHeight="1" spans="1:6">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="21"/>
+    <row r="33" customFormat="1" ht="42" customHeight="1" spans="1:6">
+      <c r="A33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="13">
+        <v>2</v>
+      </c>
+      <c r="C33" s="14">
+        <v>45356</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="16"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" ht="16.25" customHeight="1" spans="1:6">
-      <c r="A34" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="27">
-        <f>SUMIF(E4:E31,"&lt;&gt;x",B4:B31)</f>
-        <v>32.15</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+    <row r="34" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="11"/>
     </row>
     <row r="35" ht="16.25" customHeight="1" spans="1:6">
-      <c r="A35" s="28"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="21"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" ht="16.25" customHeight="1" spans="1:6">
-      <c r="A36" s="28"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="27">
+        <f>SUMIF(E4:E33,"&lt;&gt;x",B4:B33)</f>
+        <v>36.15</v>
+      </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="11"/>
     </row>
     <row r="37" ht="16.25" customHeight="1" spans="1:6">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" ht="16.25" customHeight="1" spans="1:6">
+      <c r="A38" s="28"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" ht="16.25" customHeight="1" spans="1:6">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <r>
       <rPr>
@@ -244,6 +244,54 @@
   </si>
   <si>
     <t>Aligning the form page                                                     Styling House form Page</t>
+  </si>
+  <si>
+    <t>Dividing House page into separate files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Top Bar page                                                           House Card page                                                                   Edit Delete Actions page </t>
+  </si>
+  <si>
+    <t>Recommended House Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aligining Recommended houses in HouseDeatils                       </t>
+  </si>
+  <si>
+    <t>Media queries</t>
+  </si>
+  <si>
+    <t>Media queries for Houses page, House Details page, House form page,About Page</t>
+  </si>
+  <si>
+    <t>Corrections in House Form page</t>
+  </si>
+  <si>
+    <t>validation year for Construction year                                      Changing path name for create and editing House form page   Correcing Addition tab in Form</t>
+  </si>
+  <si>
+    <t>Sorting Houses by Price</t>
+  </si>
+  <si>
+    <t>Sorting in both ascending and descending order of Houses by  price</t>
+  </si>
+  <si>
+    <t>Sorting Houses by Size</t>
+  </si>
+  <si>
+    <t>Sorting in both ascending and descending order of Houses by  size</t>
+  </si>
+  <si>
+    <t>Warning corrections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing warnings which appear in console </t>
+  </si>
+  <si>
+    <t>Structuring the project according to Vue.js</t>
+  </si>
+  <si>
+    <t>Separate components page,                                                      Separate view page,                                                                 Separate assests for storing images Correcting the image path in project</t>
   </si>
   <si>
     <t>Total amount of hours</t>
@@ -2483,10 +2531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -2948,7 +2996,9 @@
       <c r="D29" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="F29" s="11"/>
     </row>
     <row r="30" customFormat="1" ht="34" customHeight="1" spans="1:6">
@@ -3015,58 +3065,196 @@
       <c r="E33" s="16"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" customFormat="1" ht="28" customHeight="1" spans="1:6">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
+    <row r="34" customFormat="1" ht="51" customHeight="1" spans="1:6">
+      <c r="A34" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2</v>
+      </c>
+      <c r="C34" s="14">
+        <v>45368</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="E34" s="16"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" ht="16.25" customHeight="1" spans="1:6">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="21"/>
+    <row r="35" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A35" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+      <c r="C35" s="14">
+        <v>45368</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="16"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" ht="16.25" customHeight="1" spans="1:6">
-      <c r="A36" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="27">
-        <f>SUMIF(E4:E33,"&lt;&gt;x",B4:B33)</f>
-        <v>36.15</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+    <row r="36" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A36" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="13">
+        <v>3</v>
+      </c>
+      <c r="C36" s="14">
+        <v>45368</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="16"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" ht="16.25" customHeight="1" spans="1:6">
-      <c r="A37" s="28"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+    <row r="37" customFormat="1" ht="52" customHeight="1" spans="1:6">
+      <c r="A37" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="C37" s="14">
+        <v>45369</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="16"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" ht="16.25" customHeight="1" spans="1:6">
-      <c r="A38" s="28"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+    <row r="38" customFormat="1" ht="37" customHeight="1" spans="1:6">
+      <c r="A38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="14">
+        <v>45369</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="16"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" ht="16.25" customHeight="1" spans="1:6">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
+    <row r="39" customFormat="1" ht="40" customHeight="1" spans="1:6">
+      <c r="A39" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="14">
+        <v>45369</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A40" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1</v>
+      </c>
+      <c r="C40" s="14">
+        <v>45370</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A41" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1</v>
+      </c>
+      <c r="C41" s="14">
+        <v>45371</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" ht="16.25" customHeight="1" spans="1:6">
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" ht="16.25" customHeight="1" spans="1:6">
+      <c r="A45" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="27">
+        <f>SUMIF(E4:E41,"&lt;&gt;x",B4:B41)</f>
+        <v>45.32</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" ht="16.25" customHeight="1" spans="1:6">
+      <c r="A46" s="28"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" ht="16.25" customHeight="1" spans="1:6">
+      <c r="A47" s="28"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" ht="16.25" customHeight="1" spans="1:6">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
